--- a/individual_case_outputs/avey/456.xlsx
+++ b/individual_case_outputs/avey/456.xlsx
@@ -603,7 +603,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>lymphoma</t>
+          <t>cancer</t>
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
